--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187422.950464928</v>
+        <v>1166616.288808418</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411731</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10583094.62700956</v>
+        <v>11423767.42356056</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>404.2473585030221</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>233.1020523603607</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.64360395382583</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>267.0430018477306</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>73.60282600224275</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>62.56386682245585</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.90445977359174</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.90175579878783</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.84214567871175</v>
+        <v>115.5269768002231</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>211.2541671901477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.58786218362066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.2174302415107</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>57.64843562452423</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>155.8385935972313</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>161.9446414978765</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>155.8385935972304</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>114.7872343431368</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961698</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6864005999555</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.708500331692</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1739.708500331692</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1739.708500331692</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1353.920247733447</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>942.9343429438397</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1758.089842927221</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600561</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.48636361053</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.523846670118</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.258148063368</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4698954651235</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>455.4839906755159</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2366.086203674652</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240413</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013834</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013834</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.7973538578533</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1006.27269220504</v>
+        <v>213.9110074201072</v>
       </c>
       <c r="C16" t="n">
-        <v>837.3365092771334</v>
+        <v>213.9110074201072</v>
       </c>
       <c r="D16" t="n">
-        <v>687.2198698647976</v>
+        <v>213.9110074201072</v>
       </c>
       <c r="E16" t="n">
-        <v>539.3067762824045</v>
+        <v>213.9110074201072</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.92115703528</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.92115703528</v>
+        <v>213.9110074201072</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,43 +5500,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,61 +5977,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1298.996260473455</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,16 +6478,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4230.423978142506</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C34" t="n">
-        <v>4061.487795214599</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>3911.371155802263</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>3763.45806221987</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.865022116275</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y34" t="n">
-        <v>4412.072442972745</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3128.721707800139</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>3436.041841080101</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3765.904468744134</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4045.444533962831</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1341.503549752619</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1341.503549752619</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507268</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507268</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507268</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426964</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1382.969569201199</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507268</v>
+        <v>1093.840930414757</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507268</v>
+        <v>1093.840930414757</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507268</v>
+        <v>804.4237603777962</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507268</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507268</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0022165609664</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.0022165609664</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504732</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>308.1251096272023</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814574</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.53681151777289</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22600,13 +22600,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>355.2867661184359</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047564</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>340.1813440185522</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>82.8571812004754</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.9275204083456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>178.8078995902493</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5789023442195</v>
+        <v>29.89407122270813</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>40.67825230693327</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>14.45548819888947</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.9967911684741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.61454994042657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.5889167740531</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.65497486614629</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>124.2927109007008</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>65.70896746115884</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.7603267152524</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024076</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.14557958198182</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>6.267320147927819</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976596</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114798</v>
@@ -26337,13 +26337,13 @@
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
@@ -26352,7 +26352,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.6561755686</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.6561755686</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
@@ -26456,10 +26456,10 @@
         <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399561.742436189</v>
+        <v>-404602.6707097259</v>
       </c>
       <c r="C6" t="n">
-        <v>190406.1367783555</v>
+        <v>185365.2085048186</v>
       </c>
       <c r="D6" t="n">
-        <v>190406.1367783555</v>
+        <v>185365.2085048186</v>
       </c>
       <c r="E6" t="n">
-        <v>-223447.8802318668</v>
+        <v>-224422.4714915889</v>
       </c>
       <c r="F6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="G6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="H6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="I6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="J6" t="n">
-        <v>125288.9370524361</v>
+        <v>124314.3457927147</v>
       </c>
       <c r="K6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="L6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="M6" t="n">
-        <v>166911.141011192</v>
+        <v>165936.5497514705</v>
       </c>
       <c r="N6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="O6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="P6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>94.65020610977425</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>236.0793351214755</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>192.4737869083824</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>114.8873682245311</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.463989355239118e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
     </row>
     <row r="17">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.830575281998</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>590.4888118683106</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>345.29515423417</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166616.288808418</v>
+        <v>1183685.161273598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>2990033.635411731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11423767.42356056</v>
+        <v>10583094.62700956</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>178.99083261316</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>233.1020523603607</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>289.0313147428506</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>59.66385641544559</v>
+        <v>155.8860385675341</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>252.0622503311643</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>267.0430018477306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>46.90175579878783</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>175.9880246214064</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002231</v>
+        <v>91.55211331568927</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>15.98360398438619</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>125.8203713301365</v>
       </c>
       <c r="U34" t="n">
-        <v>161.9446414978765</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.1230127207785</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>114.7872343431368</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>191.6534898356754</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>176.5024369657218</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>256.111763886877</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2516.350270196849</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2262.588484834941</v>
       </c>
       <c r="V2" t="n">
-        <v>1758.089842927221</v>
+        <v>1931.52559749137</v>
       </c>
       <c r="W2" t="n">
-        <v>1405.321187657107</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.321187657107</v>
+        <v>1578.756942221256</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296043</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117928</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2681.851280526491</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2350.788393182921</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675915</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V7" t="n">
-        <v>667.8624625746712</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D8" t="n">
-        <v>825.2129885066831</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5038,43 +5038,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.67826817104</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389737</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>394.5250474102529</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.5250474102529</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201072</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201072</v>
+        <v>505.7823888599182</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201072</v>
+        <v>505.7823888599182</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201072</v>
+        <v>357.8692952775251</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201021</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201072</v>
+        <v>674.7185717878251</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,31 +5691,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5746,34 +5746,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811264</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441658</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>237.7764125461485</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,16 +6165,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6208,37 +6208,37 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,16 +6478,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395484</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>394.223678370532</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C34" t="n">
-        <v>394.223678370532</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1171.9049763016</v>
       </c>
       <c r="U34" t="n">
-        <v>911.6303993055099</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="V34" t="n">
-        <v>911.6303993055099</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="W34" t="n">
-        <v>622.2132292685493</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="X34" t="n">
-        <v>394.223678370532</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="Y34" t="n">
-        <v>394.223678370532</v>
+        <v>882.7763375151577</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>355.6416303362487</v>
+        <v>826.3487253058607</v>
       </c>
       <c r="C40" t="n">
-        <v>355.6416303362487</v>
+        <v>657.4125423779539</v>
       </c>
       <c r="D40" t="n">
-        <v>355.6416303362487</v>
+        <v>507.2959029656181</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>359.382809383225</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>212.4928618853146</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1382.969569201199</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1093.840930414757</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>1093.840930414757</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>804.4237603777962</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>576.4342094797788</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y40" t="n">
-        <v>355.6416303362487</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1305.326886885503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1305.326886885503</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="U43" t="n">
-        <v>1016.198248099061</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="V43" t="n">
-        <v>761.5137598931742</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="W43" t="n">
-        <v>472.0965898562135</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X43" t="n">
-        <v>244.1070389581962</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581962</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1240.217519157017</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>985.5330309511296</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>696.115860914169</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>468.1263100161517</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504498</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.026948541559</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504732</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1251096272023</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>37.4574877444978</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>69.58249272688977</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76.241577028157</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>96.25160475629386</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>113.2106414398432</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>178.8078995902493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>42.59662873068842</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122270813</v>
+        <v>53.86893470724198</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.67825230693327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>202.6010493677086</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>95.72718972825278</v>
       </c>
       <c r="U34" t="n">
-        <v>124.2927109007008</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>6.492880535499097</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>52.37055574259909</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>106.7603267152524</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>6.267320147927819</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>45.04512409266741</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>30.12558851170036</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143275</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143274</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>974114.4331976596</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.43319766</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="K2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="L2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="M2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="N2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114799</v>
-      </c>
-      <c r="L2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="M2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114799</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36432.48351773393</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097259</v>
+        <v>-400168.5838107712</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048186</v>
+        <v>189799.2954037733</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048186</v>
+        <v>189799.2954037735</v>
       </c>
       <c r="E6" t="n">
-        <v>-224422.4714915889</v>
+        <v>-223545.3393578391</v>
       </c>
       <c r="F6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="G6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="H6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="I6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="J6" t="n">
-        <v>124314.3457927147</v>
+        <v>125191.4779264641</v>
       </c>
       <c r="K6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190568</v>
       </c>
       <c r="L6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190568</v>
       </c>
       <c r="M6" t="n">
-        <v>165936.5497514705</v>
+        <v>166813.6818852196</v>
       </c>
       <c r="N6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.697119057</v>
       </c>
       <c r="O6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="P6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>94.65020610977425</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>236.0793351214755</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>192.4737869083824</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>114.8873682245311</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.463989355239118e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31399,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435296</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>460.830575281998</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
